--- a/tests/testthat/_snaps/knitxl/new_ws.xlsx
+++ b/tests/testthat/_snaps/knitxl/new_ws.xlsx
@@ -264,17 +264,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -607,1258 +606,1258 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="2" t="n">
         <v>16.46</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="2" t="n">
         <v>2.875</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="2" t="n">
         <v>17.02</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="2" t="n">
         <v>22.8</v>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="n">
+      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="2" t="n">
         <v>3.85</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="2" t="n">
         <v>18.61</v>
       </c>
-      <c r="I8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="2" t="n">
         <v>3.08</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="2" t="n">
         <v>3.215</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="2" t="n">
         <v>19.44</v>
       </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="5" t="n">
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="2" t="n">
         <v>18.7</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="2" t="n">
         <v>3.44</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="2" t="n">
         <v>17.02</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="5" t="n">
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="2" t="n">
         <v>18.1</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="2" t="n">
         <v>3.46</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="2" t="n">
         <v>20.22</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="I11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="2" t="n">
         <v>14.3</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="2" t="n">
         <v>3.21</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="2" t="n">
         <v>3.57</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="2" t="n">
         <v>15.84</v>
       </c>
-      <c r="I12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5" t="n">
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="2" t="n">
         <v>24.4</v>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="n">
+      <c r="C13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>146.7</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="2" t="n">
         <v>3.19</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="I13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="2" t="n">
         <v>22.8</v>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="n">
+      <c r="C14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>140.8</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="2" t="n">
         <v>22.9</v>
       </c>
-      <c r="I14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="I14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="2" t="n">
         <v>19.2</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="2" t="n">
         <v>3.44</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="2" t="n">
         <v>18.3</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="I15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="2" t="n">
         <v>3.44</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="I16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" s="5" t="n">
+      <c r="I16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="2" t="n">
         <v>16.4</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="2" t="n">
         <v>275.8</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="2" t="n">
         <v>3.07</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="2" t="n">
         <v>4.07</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="2" t="n">
         <v>17.4</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="I17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="2" t="n">
         <v>275.8</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="2" t="n">
         <v>3.07</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="2" t="n">
         <v>3.73</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="2" t="n">
         <v>17.6</v>
       </c>
-      <c r="I18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" s="5" t="n">
+      <c r="I18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="2" t="n">
         <v>275.8</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="2" t="n">
         <v>3.07</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="2" t="n">
         <v>3.78</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L19" s="5" t="n">
+      <c r="I19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="2" t="n">
         <v>10.4</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="2" t="n">
         <v>472</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="2" t="n">
         <v>2.93</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="2" t="n">
         <v>5.25</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="2" t="n">
         <v>17.98</v>
       </c>
-      <c r="I20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="5" t="n">
+      <c r="I20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="2" t="n">
         <v>10.4</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="2" t="n">
         <v>460</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="5" t="n">
+      <c r="F21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>5.424</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="2" t="n">
         <v>17.82</v>
       </c>
-      <c r="I21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5" t="n">
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="2" t="n">
         <v>440</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="2" t="n">
         <v>3.23</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="2" t="n">
         <v>5.345</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="2" t="n">
         <v>17.42</v>
       </c>
-      <c r="I22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" s="5" t="n">
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="2" t="n">
         <v>32.4</v>
       </c>
-      <c r="C23" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="5" t="n">
+      <c r="C23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>78.7</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="2" t="n">
         <v>4.08</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="2" t="n">
         <v>19.47</v>
       </c>
-      <c r="I23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" s="5" t="n">
+      <c r="I23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5" t="n">
+      <c r="C24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="2" t="n">
         <v>4.93</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="2" t="n">
         <v>1.615</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="2" t="n">
         <v>18.52</v>
       </c>
-      <c r="I24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" s="5" t="n">
+      <c r="I24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="C25" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" s="5" t="n">
+      <c r="C25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>71.1</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="2" t="n">
         <v>4.22</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="2" t="n">
         <v>1.835</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="2" t="n">
         <v>19.9</v>
       </c>
-      <c r="I25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" s="5" t="n">
+      <c r="I25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="2" t="n">
         <v>21.5</v>
       </c>
-      <c r="C26" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5" t="n">
+      <c r="C26" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>120.1</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="2" t="n">
         <v>2.465</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="2" t="n">
         <v>20.01</v>
       </c>
-      <c r="I26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" s="5" t="n">
+      <c r="I26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="2" t="n">
         <v>318</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="2" t="n">
         <v>3.52</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="2" t="n">
         <v>16.87</v>
       </c>
-      <c r="I27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" s="5" t="n">
+      <c r="I27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="2" t="n">
         <v>3.435</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="I28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" s="5" t="n">
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="2" t="n">
         <v>350</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="2" t="n">
         <v>3.73</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="2" t="n">
         <v>3.84</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="2" t="n">
         <v>15.41</v>
       </c>
-      <c r="I29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L29" s="5" t="n">
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="2" t="n">
         <v>19.2</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="2" t="n">
         <v>3.08</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="2" t="n">
         <v>3.845</v>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="2" t="n">
         <v>17.05</v>
       </c>
-      <c r="I30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" s="5" t="n">
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L30" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="2" t="n">
         <v>27.3</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="n">
+      <c r="C31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="2" t="n">
         <v>4.08</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="2" t="n">
         <v>1.935</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="2" t="n">
         <v>18.9</v>
       </c>
-      <c r="I31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L31" s="5" t="n">
+      <c r="I31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="C32" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5" t="n">
+      <c r="C32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>120.3</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="I32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="n">
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="C33" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="5" t="n">
+      <c r="C33" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>95.1</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="2" t="n">
         <v>3.77</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="2" t="n">
         <v>1.513</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="2" t="n">
         <v>16.9</v>
       </c>
-      <c r="I33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="n">
+      <c r="I33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="L33" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="2" t="n">
         <v>4.22</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="2" t="n">
         <v>3.17</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="I34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="n">
+      <c r="I34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="L34" s="2" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="2" t="n">
         <v>19.7</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="2" t="n">
         <v>175</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="2" t="n">
         <v>3.62</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="I35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="n">
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="2" t="n">
         <v>301</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="2" t="n">
         <v>3.54</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="2" t="n">
         <v>3.57</v>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H36" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="I36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="n">
+      <c r="I36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="L36" s="2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D37" s="5" t="n">
+      <c r="C37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="2" t="n">
         <v>4.11</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="2" t="n">
         <v>2.78</v>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H37" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="I37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L37" s="5" t="n">
+      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
     </row>
